--- a/Data/enumeration.xlsx
+++ b/Data/enumeration.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\WURNET.NL\Homes\defr001\AppData\FolderRedirection\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\defr001\OneDrive\Documents\Projeto_Carol\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84534AEA-01A0-45B1-A5CA-2190DCFC0AE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="10_ncr:100000_{84534AEA-01A0-45B1-A5CA-2190DCFC0AE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BB2B7502-DAA7-4776-B24C-71A234ACDB2E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{77989147-34ED-4C6C-8031-FE2BE6C3561D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{77989147-34ED-4C6C-8031-FE2BE6C3561D}"/>
   </bookViews>
   <sheets>
-    <sheet name="enumeration" sheetId="1" r:id="rId1"/>
+    <sheet name="animal" sheetId="2" r:id="rId1"/>
+    <sheet name="enumeration" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">enumeration!$A$1:$K$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">enumeration!$A$1:$K$289</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="35">
   <si>
     <t>G4</t>
   </si>
@@ -128,12 +135,18 @@
   <si>
     <t>logenterosow</t>
   </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Sow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +164,12 @@
       <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -183,6 +202,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,11 +519,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC073577-44ED-4A12-AAAC-440CC19C0F2B}">
+  <dimension ref="A4:B52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>100</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>101</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>102</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>103</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>104</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>105</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>106</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>107</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>108</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>109</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>110</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>111</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>236</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>237</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>238</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>239</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>242</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>244</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>245</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>246</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>253</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>256</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>257</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>258</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>298</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>300</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>302</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>309</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>314</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>315</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>318</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>321</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>326</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>327</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>328</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>330</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>1024</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>1034</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>1044</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>1054</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>1064</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>1084</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D17EB7F-D188-4B26-811F-5B75EF17599B}">
   <dimension ref="A1:K289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E289"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
